--- a/refCorrections.xlsx
+++ b/refCorrections.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rfiorella/Documents/NEONiso-LANL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51ADE1D-917A-2743-8C3C-D2C79665F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48C4BC-4EFA-1944-AA7B-530A038F25C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13540" yWindow="-25820" windowWidth="28040" windowHeight="16180" xr2:uid="{373B1C11-4CB9-2A4C-B768-574E997643BF}"/>
+    <workbookView xWindow="3120" yWindow="500" windowWidth="23140" windowHeight="27160" xr2:uid="{373B1C11-4CB9-2A4C-B768-574E997643BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>site</t>
   </si>
@@ -112,22 +112,22 @@
     <t>MOAB</t>
   </si>
   <si>
-    <t>*switch in CO2 (10/3) and d13C (10/4) values a day off from each other</t>
-  </si>
-  <si>
-    <t>-15ish</t>
-  </si>
-  <si>
-    <t>correct?</t>
-  </si>
-  <si>
-    <t>-14ish</t>
-  </si>
-  <si>
-    <t>-9ish</t>
-  </si>
-  <si>
-    <t>-11ish</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>issue first corrected in 0.4, updated for 0.6</t>
+  </si>
+  <si>
+    <t>issue first corrected in 0.4, updated for 0.6 - still looks suspect</t>
+  </si>
+  <si>
+    <t>co2_repairedRaw</t>
+  </si>
+  <si>
+    <t>d13C_repairedRaw</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,18 +154,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +176,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230E9E06-4187-3E47-AB84-5DEC23C84DF9}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,242 +508,290 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
-        <v>43742</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="5">
+        <v>43741</v>
+      </c>
+      <c r="D2" s="5">
         <v>44122</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>509.34</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>-9.6530000000000005</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.6</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43839</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44199</v>
+      </c>
+      <c r="E3" s="4">
+        <v>508.42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-9.2650000000000006</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
-        <v>43839</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44199</v>
-      </c>
-      <c r="E3" s="2">
-        <v>508.42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-9.2650000000000006</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="C4" s="5">
+        <v>43901</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44305</v>
+      </c>
+      <c r="E4" s="4">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-13.038</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="5">
+        <v>43782</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43881</v>
+      </c>
+      <c r="E5" s="4">
+        <v>525.05999999999995</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-10.391</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44284</v>
+      </c>
+      <c r="E6" s="4">
+        <v>506.98</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-9.5347000000000008</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
         <v>43901</v>
       </c>
-      <c r="D4" s="3">
-        <v>44305</v>
-      </c>
-      <c r="E4" s="2">
-        <v>532.79999999999995</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-13.038</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="D7" s="5">
+        <v>44221</v>
+      </c>
+      <c r="E7" s="4">
+        <v>367.88</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-12.372</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43782</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43881</v>
-      </c>
-      <c r="E5" s="2">
-        <v>525.05999999999995</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-10.391</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43901</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44245</v>
+      </c>
+      <c r="E8" s="4">
+        <v>444.1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-9.0549999999999997</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43886</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44284</v>
-      </c>
-      <c r="E6" s="2">
-        <v>506.98</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-9.5347000000000008</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43901</v>
-      </c>
-      <c r="D7" s="3">
-        <v>44221</v>
-      </c>
-      <c r="E7" s="2">
-        <v>367.88</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-12.372</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43901</v>
-      </c>
-      <c r="D8" s="3">
-        <v>44245</v>
-      </c>
-      <c r="E8" s="2">
-        <v>444.1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-9.0549999999999997</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -768,17 +810,23 @@
       <c r="F9">
         <v>555.26</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-9.9930000000000003</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-11.500999999999999</v>
       </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -797,17 +845,23 @@
       <c r="F10">
         <v>359.05</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-8.83</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-8.6069999999999993</v>
       </c>
-      <c r="I10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -826,17 +880,23 @@
       <c r="F11">
         <v>362.52</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>-8.5380000000000003</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-8.9550000000000001</v>
       </c>
-      <c r="I11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -849,17 +909,29 @@
       <c r="D12" s="1">
         <v>43699</v>
       </c>
+      <c r="E12">
+        <v>413.78</v>
+      </c>
       <c r="F12">
         <v>435.8</v>
       </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
       <c r="H12">
+        <v>-9.5250000000000004</v>
+      </c>
+      <c r="I12">
         <v>-10.116</v>
       </c>
-      <c r="I12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -872,17 +944,29 @@
       <c r="D13" s="1">
         <v>43699</v>
       </c>
+      <c r="E13">
+        <v>509.42</v>
+      </c>
       <c r="F13">
         <v>521.08000000000004</v>
       </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
       <c r="H13">
+        <v>-10.865</v>
+      </c>
+      <c r="I13">
         <v>-15.417999999999999</v>
       </c>
-      <c r="I13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -895,17 +979,29 @@
       <c r="D14" s="1">
         <v>43503</v>
       </c>
+      <c r="E14">
+        <v>421.34</v>
+      </c>
       <c r="F14">
         <v>366.93900000000002</v>
       </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
       <c r="H14">
+        <v>-9.3810000000000002</v>
+      </c>
+      <c r="I14">
         <v>-9.0540000000000003</v>
       </c>
-      <c r="I14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -918,17 +1014,29 @@
       <c r="D15" s="1">
         <v>43503</v>
       </c>
+      <c r="E15">
+        <v>451.31</v>
+      </c>
       <c r="F15">
         <v>412.10300000000001</v>
       </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
       <c r="H15">
+        <v>-10.565</v>
+      </c>
+      <c r="I15">
         <v>-9.1020000000000003</v>
       </c>
-      <c r="I15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -941,17 +1049,29 @@
       <c r="D16" s="1">
         <v>43503</v>
       </c>
+      <c r="E16">
+        <v>472.12</v>
+      </c>
       <c r="F16">
         <v>466.64299999999997</v>
       </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
       <c r="H16">
+        <v>-13.042999999999999</v>
+      </c>
+      <c r="I16">
         <v>-10.539</v>
       </c>
-      <c r="I16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -964,63 +1084,105 @@
       <c r="D17" s="1">
         <v>43982</v>
       </c>
+      <c r="E17">
+        <v>351</v>
+      </c>
       <c r="F17">
         <v>367.82</v>
       </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
       <c r="H17">
+        <v>-8.6</v>
+      </c>
+      <c r="I17">
         <v>-9.0489999999999995</v>
       </c>
-      <c r="I17">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>43783</v>
       </c>
-      <c r="D18" s="1">
-        <v>43982</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="5">
+        <v>43892</v>
+      </c>
+      <c r="E18" s="4">
+        <v>530.23</v>
+      </c>
+      <c r="F18" s="4">
         <v>442.565</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-15.903</v>
+      </c>
+      <c r="I18" s="4">
         <v>-10.574999999999999</v>
       </c>
-      <c r="I18">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="J18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>43783</v>
       </c>
-      <c r="D19" s="1">
-        <v>43982</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="5">
+        <v>43892</v>
+      </c>
+      <c r="E19" s="4">
+        <v>442.56</v>
+      </c>
+      <c r="F19" s="4">
         <v>530.23400000000004</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-10.574999999999999</v>
+      </c>
+      <c r="I19" s="4">
         <v>-15.574999999999999</v>
       </c>
-      <c r="I19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1033,17 +1195,29 @@
       <c r="D20" s="1">
         <v>43313</v>
       </c>
+      <c r="E20" s="4">
+        <v>385</v>
+      </c>
       <c r="F20">
         <v>356.166</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-9.1479999999999997</v>
+      </c>
+      <c r="I20">
         <v>-8.702</v>
       </c>
-      <c r="I20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1056,17 +1230,29 @@
       <c r="D21" s="1">
         <v>43313</v>
       </c>
+      <c r="E21" s="4">
+        <v>490</v>
+      </c>
       <c r="F21">
         <v>428.78399999999999</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-14.1</v>
+      </c>
+      <c r="I21">
         <v>-10.401</v>
       </c>
-      <c r="I21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1079,17 +1265,29 @@
       <c r="D22" s="1">
         <v>43593</v>
       </c>
+      <c r="E22" s="4">
+        <v>351</v>
+      </c>
       <c r="F22">
         <v>360.04700000000003</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="I22">
         <v>-8.7629999999999999</v>
       </c>
-      <c r="I22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1102,17 +1300,29 @@
       <c r="D23" s="1">
         <v>43982</v>
       </c>
+      <c r="E23" s="4">
+        <v>345</v>
+      </c>
       <c r="F23">
         <v>368.58</v>
       </c>
+      <c r="G23" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H23">
+        <v>-8.9</v>
+      </c>
+      <c r="I23">
         <v>-9.1750000000000007</v>
       </c>
-      <c r="I23">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1125,17 +1335,29 @@
       <c r="D24" s="1">
         <v>43982</v>
       </c>
+      <c r="E24">
+        <v>395</v>
+      </c>
       <c r="F24">
         <v>437.92</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-9.9</v>
+      </c>
+      <c r="I24">
         <v>-10.284000000000001</v>
       </c>
-      <c r="I24">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1148,17 +1370,29 @@
       <c r="D25" s="1">
         <v>43982</v>
       </c>
+      <c r="E25">
+        <v>525</v>
+      </c>
       <c r="F25">
         <v>511.21</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="I25">
         <v>-14.827999999999999</v>
       </c>
-      <c r="I25">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1171,17 +1405,29 @@
       <c r="D26" s="1">
         <v>43503</v>
       </c>
+      <c r="E26">
+        <v>363.38</v>
+      </c>
       <c r="F26">
         <v>366.56</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-8.8290000000000006</v>
+      </c>
+      <c r="I26">
         <v>-9.2669999999999995</v>
       </c>
-      <c r="I26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1194,17 +1440,29 @@
       <c r="D27" s="1">
         <v>43503</v>
       </c>
+      <c r="E27">
+        <v>460.07</v>
+      </c>
       <c r="F27">
         <v>412.50299999999999</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-10.542999999999999</v>
+      </c>
+      <c r="I27">
         <v>-9.4480000000000004</v>
       </c>
-      <c r="I27">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1217,19 +1475,31 @@
       <c r="D28" s="1">
         <v>43503</v>
       </c>
+      <c r="E28">
+        <v>563.96</v>
+      </c>
       <c r="F28">
         <v>454.61900000000003</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-11.624000000000001</v>
+      </c>
+      <c r="I28">
         <v>-10.391999999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-    <sortCondition descending="1" ref="I2:I28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+    <sortCondition descending="1" ref="K2:K28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/refCorrections.xlsx
+++ b/refCorrections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rfiorella/Documents/NEONiso-LANL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48C4BC-4EFA-1944-AA7B-530A038F25C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98678-AE0F-A446-827B-178A20B6FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="500" windowWidth="23140" windowHeight="27160" xr2:uid="{373B1C11-4CB9-2A4C-B768-574E997643BF}"/>
+    <workbookView xWindow="13480" yWindow="500" windowWidth="23140" windowHeight="27160" xr2:uid="{373B1C11-4CB9-2A4C-B768-574E997643BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>site</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>MOAB</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>notes</t>
@@ -499,7 +496,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -537,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -562,18 +559,14 @@
       <c r="E2" s="4">
         <v>509.34</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>-9.6530000000000005</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I2" s="6"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -597,18 +590,14 @@
       <c r="E3" s="4">
         <v>508.42</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>-9.2650000000000006</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -632,18 +621,14 @@
       <c r="E4" s="4">
         <v>532.79999999999995</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>-13.038</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I4" s="6"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -667,18 +652,14 @@
       <c r="E5" s="4">
         <v>525.05999999999995</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>-10.391</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -702,18 +683,14 @@
       <c r="E6" s="4">
         <v>506.98</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>-9.5347000000000008</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -737,18 +714,14 @@
       <c r="E7" s="4">
         <v>367.88</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>-12.372</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I7" s="6"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -772,18 +745,14 @@
       <c r="E8" s="4">
         <v>444.1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>-9.0549999999999997</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I8" s="6"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -1141,7 +1110,7 @@
         <v>0.6</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,7 +1148,7 @@
         <v>0.6</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
